--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -733,16 +737,19 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -750,7 +757,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -770,8 +777,11 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -791,16 +801,19 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,23 +964,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
@@ -962,13 +989,16 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,13 +1084,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,13 +1629,13 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -1557,13 +1644,16 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1612,16 +1705,19 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,17 +1745,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -1678,37 +1777,43 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1786,16 +1897,19 @@
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,22 +2033,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,7 +2137,7 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -2023,13 +2157,16 @@
       <c r="K58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -2038,7 +2175,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2047,27 +2184,30 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1400</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
@@ -2079,10 +2219,13 @@
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2233,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2110,16 +2253,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -2133,14 +2279,17 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2235,13 +2393,13 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
@@ -2253,10 +2411,13 @@
         <v>1200</v>
       </c>
       <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2393,16 +2567,16 @@
         <v>-1300</v>
       </c>
       <c r="E72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-800</v>
       </c>
       <c r="I72" s="3">
         <v>-800</v>
@@ -2411,10 +2585,13 @@
         <v>-800</v>
       </c>
       <c r="K72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2842,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,16 +3022,19 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2946,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,16 +3402,19 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3174,12 +3426,15 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -740,16 +743,19 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,7 +766,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -780,8 +786,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,7 +801,7 @@
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -804,16 +813,19 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,26 +990,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
@@ -992,13 +1018,16 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1035,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1075,8 +1108,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,16 +1120,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1178,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1459,40 +1528,46 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1705,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -1647,13 +1733,16 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1708,16 +1800,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1757,11 +1855,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -1780,8 +1878,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1789,31 +1890,34 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,13 +1983,16 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -1900,16 +2010,19 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,25 +2158,28 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,13 +2235,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2128,8 +2258,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2140,7 +2273,7 @@
         <v>1100</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
@@ -2160,8 +2293,11 @@
       <c r="L58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2169,7 +2305,7 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -2178,7 +2314,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -2187,30 +2323,33 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
       </c>
       <c r="G60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="3">
         <v>1300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>1200</v>
@@ -2222,10 +2361,13 @@
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2236,7 +2378,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2256,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2267,8 +2412,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2282,14 +2427,17 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2538,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
       </c>
       <c r="F66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
@@ -2414,10 +2571,13 @@
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,28 +2728,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
       </c>
       <c r="F72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-800</v>
       </c>
       <c r="J72" s="3">
         <v>-800</v>
@@ -2588,10 +2761,13 @@
         <v>-800</v>
       </c>
       <c r="L72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
-        <v>-100</v>
-      </c>
       <c r="F76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
       </c>
       <c r="J76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2845,7 +3043,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3034,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3057,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3179,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,11 +3595,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3373,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,19 +3653,22 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3429,12 +3680,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -734,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -746,16 +750,19 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,7 +776,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -789,13 +796,16 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
@@ -804,7 +814,7 @@
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -816,16 +826,19 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,29 +1017,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1021,48 +1048,54 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,22 +1109,23 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1111,28 +1145,31 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1190,34 +1233,37 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1295,34 +1347,37 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,34 +1385,37 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,22 +1563,25 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1540,34 +1613,37 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1610,74 +1689,80 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1715,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -1736,13 +1823,16 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1803,16 +1896,19 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,23 +1942,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -1881,43 +1980,49 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1995,7 +2106,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2013,16 +2124,19 @@
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,31 +2208,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,28 +2284,31 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>800</v>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,25 +2356,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2261,13 +2392,16 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -2276,7 +2410,7 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
@@ -2296,19 +2430,22 @@
       <c r="M58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -2317,7 +2454,7 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2326,33 +2463,36 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1400</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
@@ -2364,15 +2504,18 @@
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -2381,7 +2524,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2415,8 +2561,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2430,14 +2576,17 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,28 +2696,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1600</v>
       </c>
       <c r="F66" s="3">
         <v>1600</v>
       </c>
       <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
@@ -2574,10 +2732,13 @@
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,31 +2902,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1300</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-800</v>
       </c>
       <c r="K72" s="3">
         <v>-800</v>
@@ -2764,10 +2938,13 @@
         <v>-800</v>
       </c>
       <c r="M72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
-        <v>-100</v>
-      </c>
       <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2990,34 +3185,37 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3046,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3253,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3411,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3598,11 +3844,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3665,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3683,12 +3935,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,7 +736,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -741,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -753,16 +757,19 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,7 +786,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -799,8 +806,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
@@ -817,7 +827,7 @@
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -829,16 +839,19 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,23 +1054,23 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1051,13 +1078,16 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,34 +1098,37 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1148,31 +1182,34 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1581,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1805,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -1826,13 +1913,16 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1899,16 +1992,19 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,26 +2041,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -1983,46 +2082,52 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,19 +2205,22 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2127,16 +2238,19 @@
         <v>700</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
         <v>600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,16 +2328,19 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2237,8 +2357,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,31 +2410,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +2538,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
@@ -2413,7 +2547,7 @@
         <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2442,13 +2579,13 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -2457,7 +2594,7 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2466,36 +2603,39 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
       </c>
       <c r="H60" s="3">
         <v>1400</v>
       </c>
       <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
@@ -2507,10 +2647,13 @@
         <v>1200</v>
       </c>
       <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2518,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -2527,7 +2670,7 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2564,8 +2710,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2579,14 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,31 +2854,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1600</v>
       </c>
       <c r="G66" s="3">
         <v>1600</v>
       </c>
       <c r="H66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
@@ -2735,10 +2893,13 @@
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,34 +3076,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1300</v>
       </c>
       <c r="G72" s="3">
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-800</v>
       </c>
       <c r="L72" s="3">
         <v>-800</v>
@@ -2941,10 +3115,13 @@
         <v>-800</v>
       </c>
       <c r="N72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
       <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,7 +3447,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,13 +3672,16 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3473,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,13 +3853,16 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3644,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3847,11 +4093,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3920,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -3938,12 +4190,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,7 +743,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -748,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -760,16 +764,19 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,7 +796,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -809,8 +816,11 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
@@ -830,7 +840,7 @@
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -842,16 +852,19 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,35 +1071,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
@@ -1081,18 +1108,21 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
@@ -1101,34 +1131,37 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1185,34 +1219,37 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,54 +1307,60 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1654,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1895,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -1916,13 +2003,16 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1995,16 +2088,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2085,49 +2184,55 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,22 +2316,25 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -2241,16 +2352,19 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
         <v>600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,19 +2448,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2360,8 +2480,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,34 +2536,37 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>800</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2529,19 +2660,22 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
@@ -2550,7 +2684,7 @@
         <v>1100</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -2570,25 +2704,28 @@
       <c r="O58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -2597,7 +2734,7 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2606,39 +2743,42 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1400</v>
       </c>
       <c r="I60" s="3">
         <v>1400</v>
       </c>
       <c r="J60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
@@ -2650,10 +2790,13 @@
         <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -2673,7 +2816,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2713,8 +2859,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2728,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,34 +3012,37 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1600</v>
       </c>
       <c r="H66" s="3">
         <v>1600</v>
       </c>
       <c r="I66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
@@ -2896,10 +3054,13 @@
         <v>1200</v>
       </c>
       <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,37 +3250,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1300</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-800</v>
       </c>
       <c r="M72" s="3">
         <v>-800</v>
@@ -3118,10 +3292,13 @@
         <v>-800</v>
       </c>
       <c r="O72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
-        <v>-100</v>
-      </c>
       <c r="I76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3450,7 +3649,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,16 +3889,19 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3693,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,16 +4083,19 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3877,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,13 +4321,16 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4096,11 +4342,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4175,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4193,12 +4445,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -767,24 +774,30 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -799,10 +812,10 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -819,13 +832,19 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -834,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -855,16 +874,22 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,25 +1123,27 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1105,63 +1158,75 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1243,15 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1199,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1222,25 +1289,31 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1255,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,25 +1389,31 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1343,31 +1428,37 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,25 +1539,31 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -1475,36 +1578,42 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -1519,19 +1628,25 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1839,19 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1727,14 +1866,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1750,25 +1889,31 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
@@ -1783,19 +1928,25 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,25 +1989,31 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
@@ -1871,68 +2028,80 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,16 +2138,18 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1985,34 +2158,40 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2091,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2334,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2484,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2319,13 +2534,19 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -2334,13 +2555,13 @@
         <v>600</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
-        <v>700</v>
-      </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -2355,16 +2576,22 @@
         <v>700</v>
       </c>
       <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,25 +2684,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2483,11 +2722,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,40 +2784,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>800</v>
       </c>
       <c r="K54" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L54" s="3">
         <v>800</v>
       </c>
       <c r="M54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>800</v>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>800</v>
+      </c>
+      <c r="R54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,19 +2889,19 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2649,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2663,34 +2924,40 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,75 +2989,81 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1200</v>
       </c>
       <c r="N60" s="3">
         <v>1200</v>
@@ -2793,10 +3072,16 @@
         <v>1200</v>
       </c>
       <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,19 +3095,19 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2862,11 +3153,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2877,14 +3168,20 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,40 +3324,46 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
@@ -3057,10 +3372,16 @@
         <v>1200</v>
       </c>
       <c r="P66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-800</v>
       </c>
       <c r="O72" s="3">
         <v>-800</v>
       </c>
       <c r="P72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,43 +3794,49 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,74 +3894,86 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
@@ -3599,19 +3988,25 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3652,10 +4049,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,35 +4319,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,23 +4539,29 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4110,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,20 +4809,26 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4345,14 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,16 +4909,22 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4430,16 +4933,16 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4448,12 +4951,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,11 +751,11 @@
         <v>1500</v>
       </c>
       <c r="E8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
@@ -759,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -768,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -780,16 +784,19 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,11 +804,11 @@
         <v>1400</v>
       </c>
       <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
@@ -818,7 +825,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +857,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -859,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
@@ -868,7 +878,7 @@
         <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -880,16 +890,19 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,44 +1151,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1170,27 +1197,30 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1199,34 +1229,37 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1272,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1295,44 +1329,47 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,12 +1502,12 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1872,11 +1942,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,19 +2226,20 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2164,19 +2251,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2185,13 +2272,16 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2282,16 +2375,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,38 +2436,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2390,58 +2489,64 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2501,8 +2609,8 @@
       <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>2600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2516,8 +2624,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,19 +2663,19 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -2582,16 +2693,19 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2702,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2728,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,43 +2913,46 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>800</v>
       </c>
       <c r="O54" s="3">
         <v>800</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,25 +3026,25 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2930,28 +3061,31 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
@@ -2960,7 +3094,7 @@
         <v>1100</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
@@ -2980,13 +3114,16 @@
       <c r="R58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2995,19 +3132,19 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3016,7 +3153,7 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3025,48 +3162,51 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1400</v>
       </c>
       <c r="L60" s="3">
         <v>1400</v>
       </c>
       <c r="M60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1200</v>
       </c>
       <c r="O60" s="3">
         <v>1200</v>
@@ -3078,10 +3218,13 @@
         <v>1200</v>
       </c>
       <c r="R60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3101,7 +3244,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -3110,7 +3253,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3159,8 +3305,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3174,14 +3320,17 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,43 +3485,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1600</v>
       </c>
       <c r="K66" s="3">
         <v>1600</v>
       </c>
       <c r="L66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1200</v>
@@ -3378,10 +3536,13 @@
         <v>1200</v>
       </c>
       <c r="R66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,46 +3771,49 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1300</v>
       </c>
       <c r="K72" s="3">
         <v>-1300</v>
       </c>
       <c r="L72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-800</v>
       </c>
       <c r="P72" s="3">
         <v>-800</v>
@@ -3648,10 +3822,13 @@
         <v>-800</v>
       </c>
       <c r="R72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4055,7 +4254,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,25 +4539,28 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4352,11 +4569,11 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,17 +4784,17 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4575,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,23 +5058,26 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4842,11 +5088,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,19 +5164,22 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4939,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4957,12 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,11 +758,11 @@
         <v>1500</v>
       </c>
       <c r="F8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
@@ -766,7 +770,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -775,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -787,31 +791,34 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
       </c>
       <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
@@ -828,7 +835,7 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -848,19 +855,22 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -872,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
@@ -881,7 +891,7 @@
         <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -893,16 +903,19 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,47 +1178,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1200,30 +1227,33 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1232,34 +1262,37 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1309,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1332,47 +1366,50 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1505,8 +1551,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1945,11 +2015,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,22 +2313,23 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2254,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2275,13 +2362,16 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2378,16 +2471,19 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2612,8 +2720,8 @@
       <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>2600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2627,8 +2735,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,19 +2777,19 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>600</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -2696,16 +2807,19 @@
         <v>700</v>
       </c>
       <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>500</v>
       </c>
       <c r="S49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2825,16 +2945,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,46 +3039,49 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>800</v>
       </c>
       <c r="P54" s="3">
         <v>800</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,25 +3160,25 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,19 +3210,19 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
@@ -3097,7 +3231,7 @@
         <v>1100</v>
       </c>
       <c r="M58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -3117,16 +3251,19 @@
       <c r="S58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3135,19 +3272,19 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3156,7 +3293,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3165,13 +3302,16 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,37 +3319,37 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1400</v>
       </c>
       <c r="M60" s="3">
         <v>1400</v>
       </c>
       <c r="N60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O60" s="3">
         <v>1300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1200</v>
       </c>
       <c r="P60" s="3">
         <v>1200</v>
@@ -3221,10 +3361,13 @@
         <v>1200</v>
       </c>
       <c r="S60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3247,7 +3390,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3256,7 +3399,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,37 +3655,37 @@
         <v>2800</v>
       </c>
       <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1600</v>
       </c>
       <c r="L66" s="3">
         <v>1600</v>
       </c>
       <c r="M66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1200</v>
       </c>
       <c r="P66" s="3">
         <v>1200</v>
@@ -3539,10 +3697,13 @@
         <v>1200</v>
       </c>
       <c r="S66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,49 +3945,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1300</v>
       </c>
       <c r="M72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-800</v>
       </c>
       <c r="Q72" s="3">
         <v>-800</v>
@@ -3825,10 +3999,13 @@
         <v>-800</v>
       </c>
       <c r="S72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4257,7 +4456,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,28 +4756,31 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4572,11 +4789,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,29 +5002,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>1300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4808,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,26 +5304,29 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5091,11 +5337,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,22 +5416,25 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5194,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5212,12 +5464,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,37 +762,37 @@
         <v>1500</v>
       </c>
       <c r="E8" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="3">
         <v>1500</v>
       </c>
       <c r="G8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -794,37 +801,43 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
       </c>
       <c r="F9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
@@ -838,10 +851,10 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -858,25 +871,31 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -885,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -906,16 +925,22 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,37 +1230,39 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1224,75 +1277,87 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1346,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,28 +1451,28 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1414,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,28 +1575,28 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1526,19 +1611,25 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,28 +1761,28 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1694,19 +1797,25 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,28 +1823,28 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -1750,19 +1859,25 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2018,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,28 +2195,28 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
@@ -2086,19 +2231,25 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,28 +2319,28 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
@@ -2198,80 +2355,92 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,28 +2485,30 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2344,34 +2517,40 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,10 +2620,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2474,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,35 +2747,35 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2915,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>2600</v>
@@ -2723,11 +2938,11 @@
       <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2738,11 +2953,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2762,16 +2977,22 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2780,7 +3001,7 @@
         <v>700</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
@@ -2789,13 +3010,13 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
-        <v>700</v>
-      </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
@@ -2810,16 +3031,22 @@
         <v>700</v>
       </c>
       <c r="R49" s="3">
+        <v>700</v>
+      </c>
+      <c r="S49" s="3">
+        <v>700</v>
+      </c>
+      <c r="T49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,37 +3163,43 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2974,11 +3213,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,43 +3302,43 @@
         <v>4100</v>
       </c>
       <c r="E54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>800</v>
       </c>
       <c r="O54" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="P54" s="3">
         <v>800</v>
       </c>
       <c r="Q54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R54" s="3">
         <v>800</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>800</v>
+      </c>
+      <c r="V54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3401,15 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3163,19 +3424,19 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3184,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3198,13 +3459,19 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3213,31 +3480,31 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,99 +3536,105 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>1400</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1200</v>
       </c>
       <c r="R60" s="3">
         <v>1200</v>
@@ -3364,10 +3643,16 @@
         <v>1200</v>
       </c>
       <c r="T60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3393,19 +3678,19 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3457,11 +3748,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3472,14 +3763,20 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,52 +3955,58 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1200</v>
       </c>
       <c r="R66" s="3">
         <v>1200</v>
@@ -3700,10 +4015,16 @@
         <v>1200</v>
       </c>
       <c r="T66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-800</v>
       </c>
       <c r="S72" s="3">
         <v>-800</v>
       </c>
       <c r="T72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,55 +4537,61 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,28 +4743,28 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
@@ -4390,19 +4779,25 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4459,10 +4856,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,46 +5186,52 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,28 +5276,30 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,34 +5458,40 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>1300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5041,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,23 +5807,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5340,14 +5831,14 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,28 +5916,34 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -5449,16 +5952,16 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5467,12 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1500</v>
       </c>
       <c r="G8" s="3">
         <v>1500</v>
@@ -774,11 +778,11 @@
         <v>1500</v>
       </c>
       <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
@@ -786,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -795,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -807,40 +811,43 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1400</v>
       </c>
       <c r="H9" s="3">
         <v>1400</v>
       </c>
       <c r="I9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
@@ -857,7 +864,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -877,28 +884,31 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -910,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
@@ -919,7 +929,7 @@
         <v>-100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -931,16 +941,19 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,47 +1268,47 @@
         <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1900</v>
       </c>
       <c r="H17" s="3">
         <v>1900</v>
       </c>
       <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
@@ -1289,39 +1316,42 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1330,34 +1360,37 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1419,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1442,55 +1476,58 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2163,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,22 +2583,22 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2523,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2544,13 +2631,16 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,13 +2701,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>2900</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2626,7 +2719,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2665,16 +2758,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,50 +2831,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2797,70 +2896,76 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,16 +3026,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>2600</v>
@@ -2944,8 +3052,8 @@
       <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>2600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3067,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2983,19 +3091,22 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -3007,19 +3118,19 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>600</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
@@ -3037,16 +3148,19 @@
         <v>700</v>
       </c>
       <c r="T49" s="3">
+        <v>700</v>
+      </c>
+      <c r="U49" s="3">
         <v>600</v>
-      </c>
-      <c r="U49" s="3">
-        <v>500</v>
       </c>
       <c r="V49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,22 +3286,25 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3193,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,55 +3416,58 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>800</v>
       </c>
       <c r="S54" s="3">
         <v>800</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,7 +3543,7 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -3430,25 +3561,25 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3465,16 +3596,19 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3486,19 +3620,19 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>1100</v>
@@ -3507,7 +3641,7 @@
         <v>1100</v>
       </c>
       <c r="P58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
@@ -3527,13 +3661,16 @@
       <c r="V58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3542,10 +3679,10 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3554,19 +3691,19 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3575,7 +3712,7 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3584,21 +3721,24 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
@@ -3607,37 +3747,37 @@
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1400</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
         <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1200</v>
       </c>
       <c r="S60" s="3">
         <v>1200</v>
@@ -3649,10 +3789,13 @@
         <v>1200</v>
       </c>
       <c r="V60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3684,7 +3827,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -3693,7 +3836,7 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3769,14 +3915,17 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,55 +4116,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
       </c>
       <c r="G66" s="3">
         <v>2800</v>
       </c>
       <c r="H66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1600</v>
       </c>
       <c r="O66" s="3">
         <v>1600</v>
       </c>
       <c r="P66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1200</v>
       </c>
       <c r="S66" s="3">
         <v>1200</v>
@@ -4021,10 +4179,13 @@
         <v>1200</v>
       </c>
       <c r="V66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,58 +4466,61 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-900</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-800</v>
       </c>
       <c r="T72" s="3">
         <v>-800</v>
@@ -4355,10 +4529,13 @@
         <v>-800</v>
       </c>
       <c r="V72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
       <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
       </c>
       <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4862,7 +5061,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,37 +5406,40 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5231,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,10 +5511,10 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5302,7 +5523,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,25 +5706,25 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5506,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,35 +6041,38 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5837,11 +6083,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,31 +6171,34 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5958,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5976,12 +6228,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FDCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>FDCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,118 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1500</v>
       </c>
       <c r="H8" s="3">
         <v>1500</v>
@@ -781,11 +785,11 @@
         <v>1500</v>
       </c>
       <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
@@ -793,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -802,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -814,16 +818,19 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,26 +838,26 @@
         <v>1300</v>
       </c>
       <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1400</v>
       </c>
       <c r="I9" s="3">
         <v>1400</v>
       </c>
       <c r="J9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
@@ -867,7 +874,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -887,31 +894,34 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -923,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>-100</v>
@@ -932,7 +942,7 @@
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -944,16 +954,19 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,59 +1285,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
       </c>
       <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1900</v>
       </c>
       <c r="I17" s="3">
         <v>1900</v>
       </c>
       <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
@@ -1319,42 +1346,45 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1363,34 +1393,37 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,17 +1447,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1456,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1479,58 +1513,61 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,17 +2261,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2236,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,34 +2660,35 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2613,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2634,13 +2721,16 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,17 +2794,20 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
@@ -2722,7 +2815,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2761,16 +2854,19 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,53 +2930,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,19 +3134,22 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>2600</v>
@@ -3055,8 +3163,8 @@
       <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>2600</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3070,8 +3178,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3094,22 +3202,25 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -3121,19 +3232,19 @@
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
       </c>
       <c r="O49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
@@ -3151,16 +3262,19 @@
         <v>700</v>
       </c>
       <c r="U49" s="3">
+        <v>700</v>
+      </c>
+      <c r="V49" s="3">
         <v>600</v>
-      </c>
-      <c r="V49" s="3">
-        <v>500</v>
       </c>
       <c r="W49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,14 +3420,14 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3316,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>200</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3342,8 +3462,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,58 +3542,61 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>800</v>
       </c>
       <c r="T54" s="3">
         <v>800</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3546,7 +3677,7 @@
         <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -3564,25 +3695,25 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,10 +3742,10 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3623,19 +3757,19 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>1100</v>
@@ -3644,7 +3778,7 @@
         <v>1100</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
@@ -3664,16 +3798,19 @@
       <c r="W58" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3682,10 +3819,10 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3694,19 +3831,19 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3715,7 +3852,7 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3724,24 +3861,27 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1400</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
@@ -3750,37 +3890,37 @@
         <v>1400</v>
       </c>
       <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1400</v>
       </c>
       <c r="Q60" s="3">
         <v>1400</v>
       </c>
       <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
         <v>1300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1200</v>
       </c>
       <c r="T60" s="3">
         <v>1200</v>
@@ -3792,10 +3932,13 @@
         <v>1200</v>
       </c>
       <c r="W60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3830,7 +3973,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -3839,7 +3982,7 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +4014,7 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3918,14 +4064,17 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,58 +4274,61 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2800</v>
       </c>
       <c r="H66" s="3">
         <v>2800</v>
       </c>
       <c r="I66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1600</v>
       </c>
       <c r="P66" s="3">
         <v>1600</v>
       </c>
       <c r="Q66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1200</v>
       </c>
       <c r="T66" s="3">
         <v>1200</v>
@@ -4182,10 +4340,13 @@
         <v>1200</v>
       </c>
       <c r="W66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,61 +4640,64 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1300</v>
       </c>
       <c r="P72" s="3">
         <v>-1300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-900</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-800</v>
       </c>
       <c r="U72" s="3">
         <v>-800</v>
@@ -4532,10 +4706,13 @@
         <v>-800</v>
       </c>
       <c r="W72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5064,7 +5263,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,40 +5623,43 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5451,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5514,10 +5735,10 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5526,7 +5747,7 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5709,25 +5939,25 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5739,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,38 +6287,41 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6086,11 +6332,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,34 +6423,37 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6213,13 +6465,13 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6231,12 +6483,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>
